--- a/cw21022021.xlsx
+++ b/cw21022021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Surname</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>H200563F</t>
+  </si>
+  <si>
+    <t>Kajese</t>
+  </si>
+  <si>
+    <t>H200252q</t>
   </si>
   <si>
     <t>Kashava</t>
@@ -258,14 +264,14 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Georgia"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Georgia"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,7 +347,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -357,19 +363,25 @@
     <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1462,7 +1474,7 @@
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="22.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="22.55" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>7</v>
       </c>
@@ -1496,504 +1508,539 @@
         <v>0.955223880597015</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="22.35" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.626865671641791</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" s="10">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="22.35" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.388059701492537</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="22.35" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.761194029850746</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="22.35" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>0.626865671641791</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="D7" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="22.35" customHeight="1">
+      <c r="A8" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="22.35" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>0.5970149253731341</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="D9" s="10">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="22.35" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="22.35" customHeight="1">
+      <c r="A11" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>0.641791044776119</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="22.35" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="22.35" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9">
         <v>0.73134328358209</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="22.35" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9">
         <v>0.462686567164179</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="22.35" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9">
         <v>0.82089552238806</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="22.35" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
         <v>0.73134328358209</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="22.35" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C18" s="9">
         <v>0.402985074626866</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="22.35" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="22.35" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.626865671641791</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="D20" s="10">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="22.35" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9">
         <v>0.895522388059701</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.880597014925373</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="22.35" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.805970149253731</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9">
         <v>0.492537313432836</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="D24" s="10">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9">
         <v>0.611940298507463</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="D25" s="10">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="22.35" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9">
         <v>0.432835820895522</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9">
         <v>0.492537313432836</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="22.35" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9">
         <v>0.686567164179104</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9">
         <v>0.776119402985075</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="22.35" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9">
         <v>0.17910447761194</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9">
         <v>0.761194029850746</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="22.35" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="C33" s="9">
         <v>0.82089552238806</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="D33" s="10">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="C34" s="9">
         <v>0.8656716417910451</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="D34" s="10">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="22.35" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="C35" s="9">
         <v>0.73134328358209</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9">
         <v>0.73134328358209</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="D36" s="10">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21022021.xlsx
+++ b/cw21022021.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Surname</t>
   </si>
@@ -70,12 +70,24 @@
     <t>H200316J</t>
   </si>
   <si>
+    <t>Gosha</t>
+  </si>
+  <si>
+    <t>H200855Y</t>
+  </si>
+  <si>
     <t>Guswana</t>
   </si>
   <si>
     <t>H200562J</t>
   </si>
   <si>
+    <t>Gwede</t>
+  </si>
+  <si>
+    <t>H200812F</t>
+  </si>
+  <si>
     <t>Gwitira</t>
   </si>
   <si>
@@ -124,6 +136,12 @@
     <t>H200090Y</t>
   </si>
   <si>
+    <t>Makonese</t>
+  </si>
+  <si>
+    <t>H200565T</t>
+  </si>
+  <si>
     <t>Makubire</t>
   </si>
   <si>
@@ -136,6 +154,12 @@
     <t>H200569H</t>
   </si>
   <si>
+    <t>Makuti</t>
+  </si>
+  <si>
+    <t>H190397C</t>
+  </si>
+  <si>
     <t>MASUKA</t>
   </si>
   <si>
@@ -182,6 +206,12 @@
   </si>
   <si>
     <t>H200668A</t>
+  </si>
+  <si>
+    <t>Murumbi</t>
+  </si>
+  <si>
+    <t>H200318Z</t>
   </si>
   <si>
     <t>Muzarabani</t>
@@ -1462,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1507,7 +1537,9 @@
       <c r="C2" s="5">
         <v>0.955223880597015</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1522,7 +1554,9 @@
       <c r="C3" s="9">
         <v>0.955223880597015</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10">
+        <v>0.888888888888889</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1554,7 +1588,9 @@
       <c r="C5" s="9">
         <v>0.388059701492537</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10">
+        <v>0.388888888888889</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1569,7 +1605,9 @@
       <c r="C6" s="9">
         <v>0.761194029850746</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>0.805555555555556</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1599,9 +1637,11 @@
         <v>20</v>
       </c>
       <c r="C8" s="9">
-        <v>0.955223880597015</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.416666666666667</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1614,10 +1654,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="9">
-        <v>0.5970149253731341</v>
+        <v>0.955223880597015</v>
       </c>
       <c r="D9" s="10">
-        <v>0.555555555555556</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1631,9 +1671,11 @@
         <v>24</v>
       </c>
       <c r="C10" s="9">
-        <v>0.955223880597015</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.805555555555556</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1646,9 +1688,11 @@
         <v>26</v>
       </c>
       <c r="C11" s="9">
-        <v>0.641791044776119</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>0.5970149253731341</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.555555555555556</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1661,10 +1705,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>0.955223880597015</v>
       </c>
       <c r="D12" s="10">
-        <v>0.777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1678,9 +1722,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="9">
-        <v>0.73134328358209</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>0.641791044776119</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.722222222222222</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1693,9 +1739,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="9">
-        <v>0.462686567164179</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.777777777777778</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1708,9 +1756,11 @@
         <v>34</v>
       </c>
       <c r="C15" s="9">
-        <v>0.955223880597015</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>0.73134328358209</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.277777777777778</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1723,9 +1773,11 @@
         <v>36</v>
       </c>
       <c r="C16" s="9">
-        <v>0.82089552238806</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>0.462686567164179</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1738,9 +1790,11 @@
         <v>38</v>
       </c>
       <c r="C17" s="9">
-        <v>0.73134328358209</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>0.955223880597015</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.972222222222222</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1753,9 +1807,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="9">
-        <v>0.402985074626866</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>0.82089552238806</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.888888888888889</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1768,9 +1824,11 @@
         <v>42</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.722222222222222</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1783,10 +1841,10 @@
         <v>44</v>
       </c>
       <c r="C20" s="9">
-        <v>0.626865671641791</v>
+        <v>0.73134328358209</v>
       </c>
       <c r="D20" s="10">
-        <v>0.833333333333333</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1800,9 +1858,11 @@
         <v>46</v>
       </c>
       <c r="C21" s="9">
-        <v>0.895522388059701</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>0.402985074626866</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.638888888888889</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1815,9 +1875,11 @@
         <v>48</v>
       </c>
       <c r="C22" s="9">
-        <v>0.880597014925373</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.777777777777778</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1830,9 +1892,11 @@
         <v>50</v>
       </c>
       <c r="C23" s="9">
-        <v>0.805970149253731</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.888888888888889</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1845,10 +1909,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="9">
-        <v>0.492537313432836</v>
+        <v>0.626865671641791</v>
       </c>
       <c r="D24" s="10">
-        <v>0.472222222222222</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1862,10 +1926,10 @@
         <v>54</v>
       </c>
       <c r="C25" s="9">
-        <v>0.611940298507463</v>
+        <v>0.895522388059701</v>
       </c>
       <c r="D25" s="10">
-        <v>0.222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1879,9 +1943,11 @@
         <v>56</v>
       </c>
       <c r="C26" s="9">
-        <v>0.432835820895522</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>0.880597014925373</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.805555555555556</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1894,9 +1960,11 @@
         <v>58</v>
       </c>
       <c r="C27" s="9">
-        <v>0.492537313432836</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>0.805970149253731</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1909,9 +1977,11 @@
         <v>60</v>
       </c>
       <c r="C28" s="9">
-        <v>0.686567164179104</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>0.492537313432836</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.472222222222222</v>
+      </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1924,9 +1994,11 @@
         <v>62</v>
       </c>
       <c r="C29" s="9">
-        <v>0.776119402985075</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>0.611940298507463</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.222222222222222</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1939,9 +2011,11 @@
         <v>64</v>
       </c>
       <c r="C30" s="9">
-        <v>0.17910447761194</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>0.432835820895522</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.0277777777777778</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -1954,9 +2028,11 @@
         <v>66</v>
       </c>
       <c r="C31" s="9">
-        <v>0.955223880597015</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.75</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -1969,9 +2045,11 @@
         <v>68</v>
       </c>
       <c r="C32" s="9">
-        <v>0.761194029850746</v>
-      </c>
-      <c r="D32" s="10"/>
+        <v>0.492537313432836</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.555555555555556</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -1984,10 +2062,10 @@
         <v>70</v>
       </c>
       <c r="C33" s="9">
-        <v>0.82089552238806</v>
+        <v>0.686567164179104</v>
       </c>
       <c r="D33" s="10">
-        <v>0.694444444444444</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2001,10 +2079,10 @@
         <v>72</v>
       </c>
       <c r="C34" s="9">
-        <v>0.8656716417910451</v>
+        <v>0.776119402985075</v>
       </c>
       <c r="D34" s="10">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2018,9 +2096,11 @@
         <v>74</v>
       </c>
       <c r="C35" s="9">
-        <v>0.73134328358209</v>
-      </c>
-      <c r="D35" s="10"/>
+        <v>0.17910447761194</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.805555555555556</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -2033,7 +2113,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="9">
-        <v>0.73134328358209</v>
+        <v>0.955223880597015</v>
       </c>
       <c r="D36" s="10">
         <v>0.972222222222222</v>
@@ -2041,6 +2121,89 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.761194029850746</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s" s="8">
+        <v>80</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.82089552238806</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.8656716417910451</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="22.35" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.73134328358209</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="22.35" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.73134328358209</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw21022021.xlsx
+++ b/cw21022021.xlsx
@@ -1540,8 +1540,8 @@
       <c r="D2" s="6">
         <v>0.861111111111111</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
@@ -1557,8 +1557,8 @@
       <c r="D3" s="10">
         <v>0.888888888888889</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
@@ -1574,8 +1574,8 @@
       <c r="D4" s="10">
         <v>0.444444444444444</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
@@ -1591,8 +1591,8 @@
       <c r="D5" s="10">
         <v>0.388888888888889</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
@@ -1608,8 +1608,8 @@
       <c r="D6" s="10">
         <v>0.805555555555556</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
@@ -1625,8 +1625,8 @@
       <c r="D7" s="10">
         <v>0.333333333333333</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
@@ -1642,8 +1642,8 @@
       <c r="D8" s="10">
         <v>0.416666666666667</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
@@ -1659,8 +1659,10 @@
       <c r="D9" s="10">
         <v>0.944444444444444</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
@@ -1676,8 +1678,10 @@
       <c r="D10" s="10">
         <v>0.805555555555556</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
@@ -1693,8 +1697,8 @@
       <c r="D11" s="10">
         <v>0.555555555555556</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
@@ -1710,8 +1714,10 @@
       <c r="D12" s="10">
         <v>0.5</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
@@ -1727,8 +1733,8 @@
       <c r="D13" s="10">
         <v>0.722222222222222</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
@@ -1744,8 +1750,8 @@
       <c r="D14" s="10">
         <v>0.777777777777778</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
@@ -1761,8 +1767,8 @@
       <c r="D15" s="10">
         <v>0.277777777777778</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
@@ -1778,8 +1784,8 @@
       <c r="D16" s="10">
         <v>0.666666666666667</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
@@ -1795,8 +1801,8 @@
       <c r="D17" s="10">
         <v>0.972222222222222</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
@@ -1812,8 +1818,8 @@
       <c r="D18" s="10">
         <v>0.888888888888889</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
@@ -1829,8 +1835,10 @@
       <c r="D19" s="10">
         <v>0.722222222222222</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
@@ -1846,8 +1854,8 @@
       <c r="D20" s="10">
         <v>0.361111111111111</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
@@ -1863,8 +1871,10 @@
       <c r="D21" s="10">
         <v>0.638888888888889</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>0.73</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
@@ -1880,8 +1890,8 @@
       <c r="D22" s="10">
         <v>0.777777777777778</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
@@ -1897,8 +1907,10 @@
       <c r="D23" s="10">
         <v>0.888888888888889</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>0.87</v>
+      </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" ht="22.35" customHeight="1">
@@ -1914,8 +1926,10 @@
       <c r="D24" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>0.97</v>
+      </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" ht="22.35" customHeight="1">
@@ -1931,8 +1945,8 @@
       <c r="D25" s="10">
         <v>0.5</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="22.35" customHeight="1">
@@ -1948,8 +1962,8 @@
       <c r="D26" s="10">
         <v>0.805555555555556</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
@@ -1965,8 +1979,8 @@
       <c r="D27" s="10">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
@@ -1982,8 +1996,8 @@
       <c r="D28" s="10">
         <v>0.472222222222222</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
@@ -1999,8 +2013,8 @@
       <c r="D29" s="10">
         <v>0.222222222222222</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
@@ -2016,8 +2030,10 @@
       <c r="D30" s="10">
         <v>0.0277777777777778</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <v>0.47</v>
+      </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="22.35" customHeight="1">
@@ -2033,8 +2049,10 @@
       <c r="D31" s="10">
         <v>0.75</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" ht="22.35" customHeight="1">
@@ -2050,8 +2068,8 @@
       <c r="D32" s="10">
         <v>0.555555555555556</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
@@ -2067,8 +2085,8 @@
       <c r="D33" s="10">
         <v>0.944444444444444</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
@@ -2084,8 +2102,8 @@
       <c r="D34" s="10">
         <v>0.75</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
@@ -2101,8 +2119,8 @@
       <c r="D35" s="10">
         <v>0.805555555555556</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="11"/>
     </row>
     <row r="36" ht="22.35" customHeight="1">
@@ -2118,8 +2136,8 @@
       <c r="D36" s="10">
         <v>0.972222222222222</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="11"/>
     </row>
     <row r="37" ht="22.35" customHeight="1">
@@ -2132,9 +2150,11 @@
       <c r="C37" s="9">
         <v>0.761194029850746</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="11"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
@@ -2150,8 +2170,8 @@
       <c r="D38" s="10">
         <v>0.694444444444444</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" ht="22.35" customHeight="1">
@@ -2167,8 +2187,8 @@
       <c r="D39" s="10">
         <v>0.861111111111111</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" ht="22.35" customHeight="1">
@@ -2184,8 +2204,8 @@
       <c r="D40" s="10">
         <v>0.916666666666667</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="11"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
@@ -2201,8 +2221,8 @@
       <c r="D41" s="10">
         <v>0.972222222222222</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="11"/>
     </row>
   </sheetData>

--- a/cw21022021.xlsx
+++ b/cw21022021.xlsx
@@ -1541,7 +1541,9 @@
         <v>0.861111111111111</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6">
+        <v>0.866666666666667</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
@@ -1558,7 +1560,9 @@
         <v>0.888888888888889</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
@@ -1575,7 +1579,9 @@
         <v>0.444444444444444</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
@@ -1592,7 +1598,9 @@
         <v>0.388888888888889</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
@@ -1609,7 +1617,9 @@
         <v>0.805555555555556</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10">
+        <v>0.7</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
@@ -1626,7 +1636,9 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
@@ -1643,7 +1655,9 @@
         <v>0.416666666666667</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
@@ -1698,7 +1712,9 @@
         <v>0.555555555555556</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
@@ -1734,7 +1750,9 @@
         <v>0.722222222222222</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
@@ -1751,7 +1769,9 @@
         <v>0.777777777777778</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>0.7333333333333329</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
@@ -1768,7 +1788,9 @@
         <v>0.277777777777778</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
@@ -1785,7 +1807,9 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
@@ -1802,7 +1826,9 @@
         <v>0.972222222222222</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
@@ -1819,7 +1845,9 @@
         <v>0.888888888888889</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
@@ -1855,7 +1883,9 @@
         <v>0.361111111111111</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10">
+        <v>0.666666666666667</v>
+      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
@@ -1891,7 +1921,9 @@
         <v>0.777777777777778</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
@@ -1946,7 +1978,9 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="22.35" customHeight="1">
@@ -1963,7 +1997,9 @@
         <v>0.805555555555556</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10">
+        <v>0.6</v>
+      </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
@@ -1980,7 +2016,9 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10">
+        <v>0.7</v>
+      </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
@@ -1997,7 +2035,9 @@
         <v>0.472222222222222</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
@@ -2014,7 +2054,9 @@
         <v>0.222222222222222</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10">
+        <v>0.933333333333333</v>
+      </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
@@ -2069,7 +2111,9 @@
         <v>0.555555555555556</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10">
+        <v>0.566666666666667</v>
+      </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
@@ -2086,7 +2130,9 @@
         <v>0.944444444444444</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
@@ -2103,7 +2149,9 @@
         <v>0.75</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>0.7666666666666671</v>
+      </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
@@ -2120,7 +2168,9 @@
         <v>0.805555555555556</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" ht="22.35" customHeight="1">
@@ -2137,7 +2187,9 @@
         <v>0.972222222222222</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" ht="22.35" customHeight="1">
@@ -2154,7 +2206,9 @@
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
@@ -2188,7 +2242,9 @@
         <v>0.861111111111111</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10">
+        <v>0.7</v>
+      </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" ht="22.35" customHeight="1">
@@ -2205,7 +2261,9 @@
         <v>0.916666666666667</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10">
+        <v>0.966666666666667</v>
+      </c>
       <c r="G40" s="11"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
@@ -2222,7 +2280,9 @@
         <v>0.972222222222222</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10">
+        <v>0.833333333333333</v>
+      </c>
       <c r="G41" s="11"/>
     </row>
   </sheetData>

--- a/cw21022021.xlsx
+++ b/cw21022021.xlsx
@@ -34,7 +34,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>AMIDU</t>
+    <t>Amidu</t>
   </si>
   <si>
     <t>H200844T</t>
@@ -118,7 +118,7 @@
     <t>H200667R</t>
   </si>
   <si>
-    <t>KWAMBANA</t>
+    <t>Kwambana</t>
   </si>
   <si>
     <t>H200564J</t>
@@ -160,7 +160,7 @@
     <t>H190397C</t>
   </si>
   <si>
-    <t>MASUKA</t>
+    <t>Masuka</t>
   </si>
   <si>
     <t>H200205E</t>
@@ -184,7 +184,7 @@
     <t>H200403T</t>
   </si>
   <si>
-    <t>MUDARI</t>
+    <t>Mudari</t>
   </si>
   <si>
     <t>H200179R</t>
@@ -226,7 +226,7 @@
     <t>H200811T</t>
   </si>
   <si>
-    <t>NECHITIMA</t>
+    <t>Nechitima</t>
   </si>
   <si>
     <t>H200036T</t>
@@ -256,7 +256,7 @@
     <t>H200427C</t>
   </si>
   <si>
-    <t>TOGA</t>
+    <t>Toga</t>
   </si>
   <si>
     <t>H200215Z</t>
@@ -318,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -349,10 +349,55 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -371,13 +416,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -390,16 +465,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -411,7 +477,25 @@
     <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,6 +518,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1504,7 +1590,7 @@
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
+    <row r="1" ht="22.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1523,767 +1609,969 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" ht="23" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>0.955223880597015</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>0.861111111111111</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="7">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.866666666666667</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="G2" s="9">
+        <f>(LARGE(C2:F2,1)+LARGE(C2:F2,2)+LARGE(C2:F2,3))/3</f>
+        <v>0.894333886124931</v>
+      </c>
+    </row>
+    <row r="3" ht="23" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>0.955223880597015</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>0.888888888888889</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="E3" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F3" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="G3" s="9">
+        <f>(LARGE(C3:F3,1)+LARGE(C3:F3,2)+LARGE(C3:F3,3))/3</f>
+        <v>0.892482034273079</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>0.626865671641791</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>0.444444444444444</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="E4" s="12">
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F4" s="13">
         <v>0.8</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="G4" s="9">
+        <f>(LARGE(C4:F4,1)+LARGE(C4:F4,2)+LARGE(C4:F4,3))/3</f>
+        <v>0.70369206598586</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>0.388059701492537</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>0.388888888888889</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="E5" s="12">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F5" s="13">
         <v>0.8</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="G5" s="9">
+        <f>(LARGE(C5:F5,1)+LARGE(C5:F5,2)+LARGE(C5:F5,3))/3</f>
+        <v>0.60682261208577</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1">
+      <c r="A6" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>0.761194029850746</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>0.805555555555556</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="E6" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F6" s="13">
         <v>0.7</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="G6" s="9">
+        <f>(LARGE(C6:F6,1)+LARGE(C6:F6,2)+LARGE(C6:F6,3))/3</f>
+        <v>0.755583195135434</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>0.626865671641791</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>0.333333333333333</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="E7" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.8</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="G7" s="9">
+        <f>(LARGE(C7:F7,1)+LARGE(C7:F7,2)+LARGE(C7:F7,3))/3</f>
+        <v>0.694920136161299</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="1">
+      <c r="A8" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="E8" s="12">
+        <v>0.552631578947368</v>
+      </c>
+      <c r="F8" s="13">
         <v>0.8</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="G8" s="9">
+        <f>(LARGE(C8:F8,1)+LARGE(C8:F8,2)+LARGE(C8:F8,3))/3</f>
+        <v>0.589766081871345</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1">
+      <c r="A9" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>0.955223880597015</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>0.944444444444444</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="E9" s="12">
+        <v>0.6052631578947369</v>
+      </c>
+      <c r="F9" s="13">
         <v>0.9</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="G9" s="9">
+        <f>(LARGE(C9:F9,1)+LARGE(C9:F9,2)+LARGE(C9:F9,3))/3</f>
+        <v>0.93322277501382</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="1">
+      <c r="A10" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>0.805555555555556</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="12">
+        <v>0.710526315789474</v>
+      </c>
+      <c r="F10" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="G10" s="9">
+        <f>(LARGE(C10:F10,1)+LARGE(C10:F10,2)+LARGE(C10:F10,3))/3</f>
+        <v>0.783138401559454</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <v>0.5970149253731341</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>0.555555555555556</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="G11" s="9">
+        <f>(LARGE(C11:F11,1)+LARGE(C11:F11,2)+LARGE(C11:F11,3))/3</f>
+        <v>0.606412382531786</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="1">
+      <c r="A12" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <v>0.955223880597015</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>0.5</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="E12" s="12">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="F12" s="13">
         <v>0.7666666666666671</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="8">
+      <c r="G12" s="9">
+        <f>(LARGE(C12:F12,1)+LARGE(C12:F12,2)+LARGE(C12:F12,3))/3</f>
+        <v>0.740630182421227</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="1">
+      <c r="A13" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <v>0.641791044776119</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>0.722222222222222</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="E13" s="12">
+        <v>0.684210526315789</v>
+      </c>
+      <c r="F13" s="13">
         <v>0.9</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="G13" s="9">
+        <f>(LARGE(C13:F13,1)+LARGE(C13:F13,2)+LARGE(C13:F13,3))/3</f>
+        <v>0.7688109161793369</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="1">
+      <c r="A14" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>0.777777777777778</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="E14" s="12">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F14" s="13">
         <v>0.7333333333333329</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="G14" s="9">
+        <f>(LARGE(C14:F14,1)+LARGE(C14:F14,2)+LARGE(C14:F14,3))/3</f>
+        <v>0.714230019493177</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="1">
+      <c r="A15" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="11">
         <v>0.73134328358209</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="12">
         <v>0.277777777777778</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="E15" s="12">
+        <v>0.263157894736842</v>
+      </c>
+      <c r="F15" s="13">
         <v>0.8</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="G15" s="9">
+        <f>(LARGE(C15:F15,1)+LARGE(C15:F15,2)+LARGE(C15:F15,3))/3</f>
+        <v>0.603040353786623</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="1">
+      <c r="A16" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="11">
         <v>0.462686567164179</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="E16" s="12">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="F16" s="13">
         <v>0.9</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="G16" s="9">
+        <f>(LARGE(C16:F16,1)+LARGE(C16:F16,2)+LARGE(C16:F16,3))/3</f>
+        <v>0.785380116959064</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1">
+      <c r="A17" t="s" s="10">
         <v>37</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11">
         <v>0.955223880597015</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="12">
         <v>0.972222222222222</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E17" s="12">
+        <v>0.578947368421053</v>
+      </c>
+      <c r="F17" s="13">
         <v>0.9</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="G17" s="9">
+        <f>(LARGE(C17:F17,1)+LARGE(C17:F17,2)+LARGE(C17:F17,3))/3</f>
+        <v>0.942482034273079</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="1">
+      <c r="A18" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>0.82089552238806</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <v>0.888888888888889</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="E18" s="12">
+        <v>0.763157894736842</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.8</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="G18" s="9">
+        <f>(LARGE(C18:F18,1)+LARGE(C18:F18,2)+LARGE(C18:F18,3))/3</f>
+        <v>0.836594803758983</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="1">
+      <c r="A19" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <v>0.722222222222222</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10">
+      <c r="E19" s="12">
+        <v>0.315789473684211</v>
+      </c>
+      <c r="F19" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="8">
+      <c r="G19" s="9">
+        <f>(LARGE(C19:F19,1)+LARGE(C19:F19,2)+LARGE(C19:F19,3))/3</f>
+        <v>0.623781676413255</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="1">
+      <c r="A20" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="B20" t="s" s="8">
+      <c r="B20" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="11">
         <v>0.73134328358209</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>0.361111111111111</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="E20" s="12">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="F20" s="13">
         <v>0.666666666666667</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="G20" s="9">
+        <f>(LARGE(C20:F20,1)+LARGE(C20:F20,2)+LARGE(C20:F20,3))/3</f>
+        <v>0.676529632539059</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1">
+      <c r="A21" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="B21" t="s" s="10">
         <v>46</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>0.402985074626866</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="12">
         <v>0.638888888888889</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="E21" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F21" s="13">
         <v>0.73</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="G21" s="9">
+        <f>(LARGE(C21:F21,1)+LARGE(C21:F21,2)+LARGE(C21:F21,3))/3</f>
+        <v>0.675594541910331</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B22" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="12">
         <v>0.777777777777778</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="E22" s="12">
         <v>0</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <f>(LARGE(C22:F22,1)+LARGE(C22:F22,2)+LARGE(C22:F22,3))/3</f>
+        <v>0.259259259259259</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="1">
+      <c r="A23" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B23" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="12">
         <v>0.888888888888889</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="12">
+        <v>0.473684210526316</v>
+      </c>
+      <c r="F23" s="13">
         <v>0.87</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="G23" s="9">
+        <f>(LARGE(C23:F23,1)+LARGE(C23:F23,2)+LARGE(C23:F23,3))/3</f>
+        <v>0.91962962962963</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="1">
+      <c r="A24" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="B24" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="11">
         <v>0.626865671641791</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="12">
+        <v>0.552631578947368</v>
+      </c>
+      <c r="F24" s="13">
         <v>0.97</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="G24" s="9">
+        <f>(LARGE(C24:F24,1)+LARGE(C24:F24,2)+LARGE(C24:F24,3))/3</f>
+        <v>0.810066334991708</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1">
+      <c r="A25" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="B25" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="11">
         <v>0.895522388059701</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="12">
         <v>0.5</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
+      <c r="E25" s="12">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="F25" s="13">
         <v>0.7666666666666671</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="G25" s="9">
+        <f>(LARGE(C25:F25,1)+LARGE(C25:F25,2)+LARGE(C25:F25,3))/3</f>
+        <v>0.720729684908789</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="1">
+      <c r="A26" t="s" s="10">
         <v>55</v>
       </c>
-      <c r="B26" t="s" s="8">
+      <c r="B26" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>0.880597014925373</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <v>0.805555555555556</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="12">
+        <v>0.552631578947368</v>
+      </c>
+      <c r="F26" s="13">
         <v>0.6</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="G26" s="9">
+        <f>(LARGE(C26:F26,1)+LARGE(C26:F26,2)+LARGE(C26:F26,3))/3</f>
+        <v>0.762050856826976</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="1">
+      <c r="A27" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="B27" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="11">
         <v>0.805970149253731</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F27" s="13">
         <v>0.7</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="G27" s="9">
+        <f>(LARGE(C27:F27,1)+LARGE(C27:F27,2)+LARGE(C27:F27,3))/3</f>
+        <v>0.779767827529021</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="1">
+      <c r="A28" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="B28" t="s" s="8">
+      <c r="B28" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>0.492537313432836</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="12">
         <v>0.472222222222222</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="12">
+        <v>0.710526315789474</v>
+      </c>
+      <c r="F28" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="8">
+      <c r="G28" s="9">
+        <f>(LARGE(C28:F28,1)+LARGE(C28:F28,2)+LARGE(C28:F28,3))/3</f>
+        <v>0.6787989875185479</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1">
+      <c r="A29" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B29" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>0.611940298507463</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="12">
         <v>0.222222222222222</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E29" s="12">
+        <v>0.210526315789474</v>
+      </c>
+      <c r="F29" s="13">
         <v>0.933333333333333</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="G29" s="9">
+        <f>(LARGE(C29:F29,1)+LARGE(C29:F29,2)+LARGE(C29:F29,3))/3</f>
+        <v>0.589165284687673</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1">
+      <c r="A30" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="B30" t="s" s="8">
+      <c r="B30" t="s" s="10">
         <v>64</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>0.432835820895522</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="12">
         <v>0.0277777777777778</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="12">
+        <v>0.184210526315789</v>
+      </c>
+      <c r="F30" s="13">
         <v>0.47</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="8">
+      <c r="G30" s="9">
+        <f>(LARGE(C30:F30,1)+LARGE(C30:F30,2)+LARGE(C30:F30,3))/3</f>
+        <v>0.36234878240377</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1">
+      <c r="A31" t="s" s="10">
         <v>65</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="B31" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="12">
         <v>0.75</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="E31" s="12">
+        <v>0.342105263157895</v>
+      </c>
+      <c r="F31" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="8">
+      <c r="G31" s="9">
+        <f>(LARGE(C31:F31,1)+LARGE(C31:F31,2)+LARGE(C31:F31,3))/3</f>
+        <v>0.6418128654970759</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="1">
+      <c r="A32" t="s" s="10">
         <v>67</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B32" t="s" s="10">
         <v>68</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>0.492537313432836</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="12">
         <v>0.555555555555556</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="E32" s="12">
+        <v>0.6052631578947369</v>
+      </c>
+      <c r="F32" s="13">
         <v>0.566666666666667</v>
       </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="8">
+      <c r="G32" s="9">
+        <f>(LARGE(C32:F32,1)+LARGE(C32:F32,2)+LARGE(C32:F32,3))/3</f>
+        <v>0.575828460038987</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1">
+      <c r="A33" t="s" s="10">
         <v>69</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>0.686567164179104</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="12">
         <v>0.944444444444444</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="E33" s="12">
+        <v>0.710526315789474</v>
+      </c>
+      <c r="F33" s="13">
         <v>0.8</v>
       </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="8">
+      <c r="G33" s="9">
+        <f>(LARGE(C33:F33,1)+LARGE(C33:F33,2)+LARGE(C33:F33,3))/3</f>
+        <v>0.818323586744639</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1">
+      <c r="A34" t="s" s="10">
         <v>71</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>0.776119402985075</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="12">
         <v>0.75</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
+      <c r="E34" s="12">
+        <v>0.657894736842105</v>
+      </c>
+      <c r="F34" s="13">
         <v>0.7666666666666671</v>
       </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="8">
+      <c r="G34" s="9">
+        <f>(LARGE(C34:F34,1)+LARGE(C34:F34,2)+LARGE(C34:F34,3))/3</f>
+        <v>0.764262023217247</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1">
+      <c r="A35" t="s" s="10">
         <v>73</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>0.17910447761194</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="12">
         <v>0.805555555555556</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="E35" s="12">
+        <v>0.578947368421053</v>
+      </c>
+      <c r="F35" s="13">
         <v>0.8</v>
       </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="8">
+      <c r="G35" s="9">
+        <f>(LARGE(C35:F35,1)+LARGE(C35:F35,2)+LARGE(C35:F35,3))/3</f>
+        <v>0.728167641325536</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1">
+      <c r="A36" t="s" s="10">
         <v>75</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>0.955223880597015</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="12">
         <v>0.972222222222222</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
+      <c r="E36" s="12">
+        <v>0.6052631578947369</v>
+      </c>
+      <c r="F36" s="13">
         <v>0.9</v>
       </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="8">
+      <c r="G36" s="9">
+        <f>(LARGE(C36:F36,1)+LARGE(C36:F36,2)+LARGE(C36:F36,3))/3</f>
+        <v>0.942482034273079</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="1">
+      <c r="A37" t="s" s="10">
         <v>77</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" t="s" s="10">
         <v>78</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>0.761194029850746</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="12">
         <v>0</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
+      <c r="E37" s="12">
         <v>0</v>
       </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="8">
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <f>(LARGE(C37:F37,1)+LARGE(C37:F37,2)+LARGE(C37:F37,3))/3</f>
+        <v>0.253731343283582</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="1">
+      <c r="A38" t="s" s="10">
         <v>79</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" t="s" s="10">
         <v>80</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>0.82089552238806</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="12">
         <v>0.694444444444444</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="8">
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <f>(LARGE(C38:F38,1)+LARGE(C38:F38,2)+LARGE(C38:F38,3))/3</f>
+        <v>0.5051133222775011</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="1">
+      <c r="A39" t="s" s="10">
         <v>81</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>0.8656716417910451</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="12">
         <v>0.861111111111111</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="E39" s="12">
+        <v>0.763157894736842</v>
+      </c>
+      <c r="F39" s="13">
         <v>0.7</v>
       </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="8">
+      <c r="G39" s="9">
+        <f>(LARGE(C39:F39,1)+LARGE(C39:F39,2)+LARGE(C39:F39,3))/3</f>
+        <v>0.829980215879666</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="1">
+      <c r="A40" t="s" s="10">
         <v>83</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <v>0.73134328358209</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="12">
         <v>0.916666666666667</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
+      <c r="E40" s="12">
+        <v>0.815789473684211</v>
+      </c>
+      <c r="F40" s="13">
         <v>0.966666666666667</v>
       </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="8">
+      <c r="G40" s="9">
+        <f>(LARGE(C40:F40,1)+LARGE(C40:F40,2)+LARGE(C40:F40,3))/3</f>
+        <v>0.899707602339182</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="1">
+      <c r="A41" t="s" s="10">
         <v>85</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="11">
         <v>0.73134328358209</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="12">
         <v>0.972222222222222</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10">
+      <c r="E41" s="12">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F41" s="13">
         <v>0.833333333333333</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="14">
+        <f>(LARGE(C41:F41,1)+LARGE(C41:F41,2)+LARGE(C41:F41,3))/3</f>
+        <v>0.847465886939571</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
